--- a/data/285_P_features_case.xlsx
+++ b/data/285_P_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3830,566 +3830,6 @@
         <v>0.7983399999999999</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1.001680743421053</v>
-      </c>
-      <c r="B61" t="n">
-        <v>30.37674064327485</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1.69336869042393e-05</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-0.01158824277289839</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1.609519192065789e-06</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.001951847109539474</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.83727447519737e-06</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.0002149888792487391</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.05940030944809942</v>
-      </c>
-      <c r="J61" t="n">
-        <v>-4.073134323830473e-06</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-0.001198392361659357</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.001295058375730994</v>
-      </c>
-      <c r="M61" t="n">
-        <v>6.015323666288382e-06</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.205274841089181e-05</v>
-      </c>
-      <c r="O61" t="n">
-        <v>-4.200920342927631e-05</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0.0003748550082434576</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1471.132338667992</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0.8164899999999999</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1.0017134375</v>
-      </c>
-      <c r="B62" t="n">
-        <v>30.45499025950292</v>
-      </c>
-      <c r="C62" t="n">
-        <v>9.216711366959002e-06</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-0.01401927485201206</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1.590733358799342e-06</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.001785209925986842</v>
-      </c>
-      <c r="G62" t="n">
-        <v>2.470337560592101e-06</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.000214657870808787</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.05445304325657895</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.042894051918863e-05</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-0.001111765796052632</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.001302710487755848</v>
-      </c>
-      <c r="M62" t="n">
-        <v>-6.176328797898391e-06</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.22519796126462e-05</v>
-      </c>
-      <c r="O62" t="n">
-        <v>-9.021676608406433e-05</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.0003580708383773026</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1473.373424426466</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0.8346399999999999</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1.001743847039474</v>
-      </c>
-      <c r="B63" t="n">
-        <v>30.52474567799708</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.575158525237935e-08</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-0.0158960528156049</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1.581215513387006e-06</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.001606077813157895</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2.511709631491772e-06</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.0002173655356415296</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.04907585200109648</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.248514856085507e-05</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-0.001015740213358918</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.001367703948921784</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-1.878631379115497e-05</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.863479256477521e-05</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-0.0001325409654999899</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0.0003433112609850402</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1475.373921096594</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0.85278</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1.001769542763158</v>
-      </c>
-      <c r="B64" t="n">
-        <v>30.58650661549708</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-9.198781111110875e-06</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-0.01773642264883955</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1.511026630884868e-06</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.00140432814506579</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.791433635921049e-06</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.0002170375619831872</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.04295495338084795</v>
-      </c>
-      <c r="J64" t="n">
-        <v>-4.300590759868378e-06</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-0.0009108563746345028</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.001311337959795322</v>
-      </c>
-      <c r="M64" t="n">
-        <v>-2.851297533336989e-05</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.405519331034357e-05</v>
-      </c>
-      <c r="O64" t="n">
-        <v>-0.0001599537898997441</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0.0003195558977959796</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>1477.14907226203</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0.87113</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1.0017946875</v>
-      </c>
-      <c r="B65" t="n">
-        <v>30.63928170687134</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-1.806011191337693e-05</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.0201789961132913</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1.412699290884539e-06</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.001185528095723684</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3.13958559868423e-07</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.0002214823107484649</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.03628435113852339</v>
-      </c>
-      <c r="J65" t="n">
-        <v>-4.27706015131578e-05</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-0.0007984870487865496</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.00132143959868421</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-3.410677285495248e-05</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-1.845543678614766e-05</v>
-      </c>
-      <c r="O65" t="n">
-        <v>-0.0001523489813404057</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0.0003009685572404422</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1478.663596163496</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.8894799999999999</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1.001812233552631</v>
-      </c>
-      <c r="B66" t="n">
-        <v>30.68304395102339</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-1.772184172149118e-05</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.02360800103552084</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1.364658505730263e-06</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.0009548335642618421</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-1.179732805460521e-06</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.0002250223883167763</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.02922307574141082</v>
-      </c>
-      <c r="J66" t="n">
-        <v>-8.436626686586269e-05</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-0.0006780177010741776</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.001322584091739766</v>
-      </c>
-      <c r="M66" t="n">
-        <v>-3.654532924557747e-05</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-1.295307732853984e-05</v>
-      </c>
-      <c r="O66" t="n">
-        <v>-0.000113997211351462</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0.0002820353935796327</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1479.920678561944</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.90784</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1.001828799342105</v>
-      </c>
-      <c r="B67" t="n">
-        <v>30.71778004385965</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-3.370047189327516e-06</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.02798610303887253</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1.36126104683972e-06</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.0007175999774320888</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-1.979989749169408e-06</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.0002353551256836504</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.02195214280023273</v>
-      </c>
-      <c r="J67" t="n">
-        <v>-0.000108926782096948</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-0.0005494926111142179</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.001370917822002924</v>
-      </c>
-      <c r="M67" t="n">
-        <v>-3.697042225061221e-05</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-7.718592958886147e-06</v>
-      </c>
-      <c r="O67" t="n">
-        <v>-6.420925785746527e-05</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0.0002711887223855354</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>1480.913498660822</v>
-      </c>
-      <c r="R67" t="n">
-        <v>0.92619</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1.001835805921052</v>
-      </c>
-      <c r="B68" t="n">
-        <v>30.74345339912281</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1.411682228983906e-05</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.03298186487161914</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1.299094080990132e-06</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.0004811065655325658</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-2.317787935197368e-06</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0002410225052001827</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.01469635711410764</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-0.0001209887884674707</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-0.0004146313239512975</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.00132122370120614</v>
-      </c>
-      <c r="M68" t="n">
-        <v>-3.573338349872076e-05</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-5.165964852211258e-06</v>
-      </c>
-      <c r="O68" t="n">
-        <v>-3.73209065030519e-05</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0.0002606958127639803</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1481.648641542266</v>
-      </c>
-      <c r="R68" t="n">
-        <v>0.9446399999999999</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>1.001844213815789</v>
-      </c>
-      <c r="B69" t="n">
-        <v>30.75963748172515</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1.856603251096524e-05</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.03806461156156798</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1.2816861318875e-06</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.0002538780591000658</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-1.889470557029605e-06</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.0002528046319428911</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.00772189760908187</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-0.000108855207053728</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-0.0002767440658684759</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.001322868802997076</v>
-      </c>
-      <c r="M69" t="n">
-        <v>-3.521884079155701e-05</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-6.91227255540625e-06</v>
-      </c>
-      <c r="O69" t="n">
-        <v>-3.294776904325658e-05</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.0002581918845593019</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>1482.10341587821</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.96309</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1.001848384868421</v>
-      </c>
-      <c r="B70" t="n">
-        <v>30.7662276498538</v>
-      </c>
-      <c r="C70" t="n">
-        <v>9.762613307749195e-06</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.04281557409916118</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1.288677094971053e-06</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3.064840282939473e-05</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-1.046512347707235e-06</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.0002611119958810855</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.0008664500175621343</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-8.585988939510233e-05</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-0.0001366787232133589</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.001314199170321637</v>
-      </c>
-      <c r="M70" t="n">
-        <v>-3.428228456304824e-05</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-1.211285521536732e-05</v>
-      </c>
-      <c r="O70" t="n">
-        <v>-3.075985061392543e-05</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0.0002562673439986111</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1482.2798871539</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0.98155</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
